--- a/Excel/SystemMenu@c.xlsx
+++ b/Excel/SystemMenu@c.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>底部菜单</t>
+  </si>
+  <si>
+    <t>OpenWin:Win_UIBag</t>
+  </si>
+  <si>
+    <t>OpenWin:Win_UISetting</t>
+  </si>
+  <si>
+    <t>OpenWin:Win_UIChat</t>
   </si>
   <si>
     <t>Bag</t>
@@ -923,25 +932,33 @@
         </row>
         <row r="11">
           <cell r="C11">
-            <v>102201</v>
+            <v>102103</v>
           </cell>
           <cell r="D11" t="str">
-            <v>背包</v>
+            <v>聊天</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>102202</v>
+            <v>102201</v>
           </cell>
           <cell r="D12" t="str">
-            <v>属性</v>
+            <v>背包</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
+            <v>102202</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>属性</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
             <v>102203</v>
           </cell>
-          <cell r="D13" t="str">
+          <cell r="D14" t="str">
             <v>分解</v>
           </cell>
         </row>
@@ -1209,10 +1226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:P15"/>
+  <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1227,7 +1244,7 @@
     <col min="9" max="9" width="7.41666666666667" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.65" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.65" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.2" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="11.4166666666667" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.3333333333333" style="2" customWidth="1"/>
@@ -1434,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:9">
+    <row r="10" spans="3:12">
       <c r="C10" s="3">
         <v>1101</v>
       </c>
@@ -1457,8 +1474,11 @@
       <c r="I10" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="3:9">
+    <row r="11" spans="3:12">
       <c r="C11" s="3">
         <v>1102</v>
       </c>
@@ -1481,49 +1501,52 @@
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="3:12">
+      <c r="C12" s="3">
+        <v>1103</v>
+      </c>
+      <c r="D12" s="3">
+        <v>102103</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
+        <v>聊天</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11">
-      <c r="C13" s="3">
-        <v>1201</v>
-      </c>
-      <c r="D13" s="3">
-        <v>102201</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>背包</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="1">
-        <v>30</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" s="3">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D14" s="3">
-        <v>102202</v>
+        <v>102201</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>属性</v>
+        <v>背包</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>29</v>
@@ -1532,25 +1555,25 @@
         <v>30</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="3">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D15" s="3">
-        <v>102203</v>
+        <v>102202</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>分解</v>
+        <v>属性</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>29</v>
@@ -1559,13 +1582,40 @@
         <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="3">
+        <v>1203</v>
+      </c>
+      <c r="D16" s="3">
+        <v>102203</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
+        <v>分解</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SystemMenu@c.xlsx
+++ b/Excel/SystemMenu@c.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1"/>
+    <workbookView windowHeight="17775" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -85,13 +85,13 @@
     <t>HelpId</t>
   </si>
   <si>
-    <t>ShowCmdStr</t>
-  </si>
-  <si>
-    <t>OpenCmdStr</t>
-  </si>
-  <si>
-    <t>CloseCmdStr</t>
+    <t>ShowCmd</t>
+  </si>
+  <si>
+    <t>OpenCmd</t>
+  </si>
+  <si>
+    <t>CloseCmd</t>
   </si>
   <si>
     <t>int</t>
@@ -100,12 +100,21 @@
     <t>string</t>
   </si>
   <si>
+    <t>List&lt;CmdArgs&gt;</t>
+  </si>
+  <si>
+    <t>#聊天二级</t>
+  </si>
+  <si>
     <t>Chat</t>
   </si>
   <si>
     <t>聊天栏</t>
   </si>
   <si>
+    <t>#一级菜单</t>
+  </si>
+  <si>
     <t>btn_bb</t>
   </si>
   <si>
@@ -122,6 +131,9 @@
   </si>
   <si>
     <t>OpenWin:Win_UIChat</t>
+  </si>
+  <si>
+    <t>#二级菜单</t>
   </si>
   <si>
     <t>Bag</t>
@@ -1226,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:P16"/>
+  <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1374,248 +1386,253 @@
         <v>25</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:9">
-      <c r="C6" s="1">
+    <row r="6" customFormat="1" spans="2:2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:9">
+      <c r="C7" s="1">
         <v>1001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>102001</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E7" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
         <v>世界</v>
       </c>
-      <c r="G6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>102002</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>帮会</v>
-      </c>
       <c r="G7" s="1">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="1">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D8" s="1">
-        <v>102003</v>
+        <v>102002</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>个人</v>
+        <v>帮会</v>
       </c>
       <c r="G8" s="1">
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>0</v>
+    <row r="9" spans="3:9">
+      <c r="C9" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>102003</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
+        <v>个人</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="3">
-        <v>1101</v>
-      </c>
-      <c r="D10" s="3">
-        <v>102101</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>背包</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="3" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="3">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D11" s="3">
-        <v>102102</v>
+        <v>102101</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>设置</v>
+        <v>背包</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1">
         <v>20</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" s="3">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D12" s="3">
-        <v>102103</v>
+        <v>102102</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>聊天</v>
+        <v>设置</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>20</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="3">
+        <v>1103</v>
+      </c>
+      <c r="D13" s="3">
+        <v>102103</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
+        <v>聊天</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="3">
-        <v>1201</v>
-      </c>
-      <c r="D14" s="3">
-        <v>102201</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>背包</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1">
-        <v>30</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>37</v>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" s="3">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D15" s="3">
-        <v>102202</v>
+        <v>102201</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>属性</v>
+        <v>背包</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G15" s="1">
         <v>30</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" s="3">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D16" s="3">
-        <v>102203</v>
+        <v>102202</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
-        <v>分解</v>
+        <v>属性</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1">
         <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="3">
+        <v>1203</v>
+      </c>
+      <c r="D17" s="3">
+        <v>102203</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>VLOOKUP(D:D,[1]Menu!$C:$D,2,FALSE)</f>
+        <v>分解</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
